--- a/datos/CLASIFICACIONES_BALANCES.xlsx
+++ b/datos/CLASIFICACIONES_BALANCES.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77771866-05EA-4EDE-A205-B52C12662303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAEDBDA-4D1E-4DB3-9C55-BB500C7EE195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="711" yWindow="-103" windowWidth="21335" windowHeight="12549" xr2:uid="{6CAF9067-E9DD-4BAA-A4C4-ED4C1F61F977}"/>
+    <workbookView xWindow="3804" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{6CAF9067-E9DD-4BAA-A4C4-ED4C1F61F977}"/>
   </bookViews>
   <sheets>
     <sheet name="filas" sheetId="1" r:id="rId1"/>
     <sheet name="columnas" sheetId="2" r:id="rId2"/>
+    <sheet name="filasXcolumnas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="426">
   <si>
     <t>OFERTA TOTAL</t>
   </si>
@@ -143,9 +144,6 @@
     <t>bf027</t>
   </si>
   <si>
-    <t>Correlativo filas</t>
-  </si>
-  <si>
     <t>OT01</t>
   </si>
   <si>
@@ -437,27 +435,12 @@
     <t>bc023</t>
   </si>
   <si>
-    <t>Correlativo columnas</t>
-  </si>
-  <si>
     <t>Energía primaria</t>
   </si>
   <si>
     <t>Energía secundaria</t>
   </si>
   <si>
-    <t>ID Tipo energía</t>
-  </si>
-  <si>
-    <t>Tipo energía</t>
-  </si>
-  <si>
-    <t>Energético</t>
-  </si>
-  <si>
-    <t>ID Energético</t>
-  </si>
-  <si>
     <t>EP01</t>
   </si>
   <si>
@@ -638,12 +621,6 @@
     <t>Consumo final de los hogares</t>
   </si>
   <si>
-    <t>id_ofut</t>
-  </si>
-  <si>
-    <t>ofut</t>
-  </si>
-  <si>
     <t>id_ntge_compacto</t>
   </si>
   <si>
@@ -659,15 +636,6 @@
     <t>Consumo de energéticos (intermedio y final, excepto hogares)</t>
   </si>
   <si>
-    <t>P4904</t>
-  </si>
-  <si>
-    <t>AMB</t>
-  </si>
-  <si>
-    <t>OTROS</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -681,13 +649,679 @@
   </si>
   <si>
     <t>id_agregado_balance</t>
+  </si>
+  <si>
+    <t>correlativo_filas</t>
+  </si>
+  <si>
+    <t>correlativo_columnas</t>
+  </si>
+  <si>
+    <t>id_tipo_energia</t>
+  </si>
+  <si>
+    <t>tipo_energia</t>
+  </si>
+  <si>
+    <t>id_energetico</t>
+  </si>
+  <si>
+    <t>energetico</t>
+  </si>
+  <si>
+    <t>Insumos naturales</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>id_primaria_secundaria</t>
+  </si>
+  <si>
+    <t>primaria_secundaria</t>
+  </si>
+  <si>
+    <t>id_oferta_utilizacion</t>
+  </si>
+  <si>
+    <t>oferta_utilizacion</t>
+  </si>
+  <si>
+    <t>Residuos</t>
+  </si>
+  <si>
+    <t>id_filasXcolumnas</t>
+  </si>
+  <si>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>No aprovechado</t>
+  </si>
+  <si>
+    <t>id_ambiente_economia</t>
+  </si>
+  <si>
+    <t>ambiente_economia</t>
+  </si>
+  <si>
+    <t>11EP01</t>
+  </si>
+  <si>
+    <t>11EP02</t>
+  </si>
+  <si>
+    <t>11EP03</t>
+  </si>
+  <si>
+    <t>11EP04</t>
+  </si>
+  <si>
+    <t>11EP05</t>
+  </si>
+  <si>
+    <t>11EP06</t>
+  </si>
+  <si>
+    <t>11EP07</t>
+  </si>
+  <si>
+    <t>11EP08</t>
+  </si>
+  <si>
+    <t>11EP09</t>
+  </si>
+  <si>
+    <t>11ES01</t>
+  </si>
+  <si>
+    <t>11ES02</t>
+  </si>
+  <si>
+    <t>11ES03</t>
+  </si>
+  <si>
+    <t>11ES04</t>
+  </si>
+  <si>
+    <t>11ES05</t>
+  </si>
+  <si>
+    <t>11ES06</t>
+  </si>
+  <si>
+    <t>11ES07</t>
+  </si>
+  <si>
+    <t>11ES08</t>
+  </si>
+  <si>
+    <t>11ES09</t>
+  </si>
+  <si>
+    <t>11ES10</t>
+  </si>
+  <si>
+    <t>11ES11</t>
+  </si>
+  <si>
+    <t>12EP01</t>
+  </si>
+  <si>
+    <t>12EP02</t>
+  </si>
+  <si>
+    <t>12EP03</t>
+  </si>
+  <si>
+    <t>12EP04</t>
+  </si>
+  <si>
+    <t>12EP05</t>
+  </si>
+  <si>
+    <t>12EP06</t>
+  </si>
+  <si>
+    <t>12EP07</t>
+  </si>
+  <si>
+    <t>12EP08</t>
+  </si>
+  <si>
+    <t>12EP09</t>
+  </si>
+  <si>
+    <t>12ES01</t>
+  </si>
+  <si>
+    <t>12ES02</t>
+  </si>
+  <si>
+    <t>12ES03</t>
+  </si>
+  <si>
+    <t>12ES04</t>
+  </si>
+  <si>
+    <t>12ES05</t>
+  </si>
+  <si>
+    <t>12ES06</t>
+  </si>
+  <si>
+    <t>12ES07</t>
+  </si>
+  <si>
+    <t>12ES08</t>
+  </si>
+  <si>
+    <t>12ES09</t>
+  </si>
+  <si>
+    <t>12ES10</t>
+  </si>
+  <si>
+    <t>12ES11</t>
+  </si>
+  <si>
+    <t>23EP01</t>
+  </si>
+  <si>
+    <t>23EP02</t>
+  </si>
+  <si>
+    <t>23EP03</t>
+  </si>
+  <si>
+    <t>23EP04</t>
+  </si>
+  <si>
+    <t>23EP05</t>
+  </si>
+  <si>
+    <t>23EP06</t>
+  </si>
+  <si>
+    <t>23EP07</t>
+  </si>
+  <si>
+    <t>23EP08</t>
+  </si>
+  <si>
+    <t>23EP09</t>
+  </si>
+  <si>
+    <t>23ES01</t>
+  </si>
+  <si>
+    <t>23ES02</t>
+  </si>
+  <si>
+    <t>23ES03</t>
+  </si>
+  <si>
+    <t>23ES04</t>
+  </si>
+  <si>
+    <t>23ES05</t>
+  </si>
+  <si>
+    <t>23ES06</t>
+  </si>
+  <si>
+    <t>23ES07</t>
+  </si>
+  <si>
+    <t>23ES08</t>
+  </si>
+  <si>
+    <t>23ES09</t>
+  </si>
+  <si>
+    <t>23ES10</t>
+  </si>
+  <si>
+    <t>23ES11</t>
+  </si>
+  <si>
+    <t>24EP01</t>
+  </si>
+  <si>
+    <t>24EP02</t>
+  </si>
+  <si>
+    <t>24EP03</t>
+  </si>
+  <si>
+    <t>24EP04</t>
+  </si>
+  <si>
+    <t>24EP05</t>
+  </si>
+  <si>
+    <t>24EP06</t>
+  </si>
+  <si>
+    <t>24EP07</t>
+  </si>
+  <si>
+    <t>24EP08</t>
+  </si>
+  <si>
+    <t>24EP09</t>
+  </si>
+  <si>
+    <t>24ES01</t>
+  </si>
+  <si>
+    <t>24ES02</t>
+  </si>
+  <si>
+    <t>24ES03</t>
+  </si>
+  <si>
+    <t>24ES04</t>
+  </si>
+  <si>
+    <t>24ES05</t>
+  </si>
+  <si>
+    <t>24ES06</t>
+  </si>
+  <si>
+    <t>24ES07</t>
+  </si>
+  <si>
+    <t>24ES08</t>
+  </si>
+  <si>
+    <t>24ES09</t>
+  </si>
+  <si>
+    <t>24ES10</t>
+  </si>
+  <si>
+    <t>24ES11</t>
+  </si>
+  <si>
+    <t>25EP01</t>
+  </si>
+  <si>
+    <t>25EP02</t>
+  </si>
+  <si>
+    <t>25EP03</t>
+  </si>
+  <si>
+    <t>25EP04</t>
+  </si>
+  <si>
+    <t>25EP05</t>
+  </si>
+  <si>
+    <t>25EP06</t>
+  </si>
+  <si>
+    <t>25EP07</t>
+  </si>
+  <si>
+    <t>25EP08</t>
+  </si>
+  <si>
+    <t>25EP09</t>
+  </si>
+  <si>
+    <t>25ES01</t>
+  </si>
+  <si>
+    <t>25ES02</t>
+  </si>
+  <si>
+    <t>25ES03</t>
+  </si>
+  <si>
+    <t>25ES04</t>
+  </si>
+  <si>
+    <t>25ES05</t>
+  </si>
+  <si>
+    <t>25ES06</t>
+  </si>
+  <si>
+    <t>25ES07</t>
+  </si>
+  <si>
+    <t>25ES08</t>
+  </si>
+  <si>
+    <t>25ES09</t>
+  </si>
+  <si>
+    <t>25ES10</t>
+  </si>
+  <si>
+    <t>25ES11</t>
+  </si>
+  <si>
+    <t>26EP01</t>
+  </si>
+  <si>
+    <t>26EP02</t>
+  </si>
+  <si>
+    <t>26EP03</t>
+  </si>
+  <si>
+    <t>26EP04</t>
+  </si>
+  <si>
+    <t>26EP05</t>
+  </si>
+  <si>
+    <t>26EP06</t>
+  </si>
+  <si>
+    <t>26EP07</t>
+  </si>
+  <si>
+    <t>26EP08</t>
+  </si>
+  <si>
+    <t>26EP09</t>
+  </si>
+  <si>
+    <t>26ES01</t>
+  </si>
+  <si>
+    <t>26ES02</t>
+  </si>
+  <si>
+    <t>26ES03</t>
+  </si>
+  <si>
+    <t>26ES04</t>
+  </si>
+  <si>
+    <t>26ES05</t>
+  </si>
+  <si>
+    <t>26ES06</t>
+  </si>
+  <si>
+    <t>26ES07</t>
+  </si>
+  <si>
+    <t>26ES08</t>
+  </si>
+  <si>
+    <t>26ES09</t>
+  </si>
+  <si>
+    <t>26ES10</t>
+  </si>
+  <si>
+    <t>26ES11</t>
+  </si>
+  <si>
+    <t>27EP01</t>
+  </si>
+  <si>
+    <t>27EP02</t>
+  </si>
+  <si>
+    <t>27EP03</t>
+  </si>
+  <si>
+    <t>27EP04</t>
+  </si>
+  <si>
+    <t>27EP05</t>
+  </si>
+  <si>
+    <t>27EP06</t>
+  </si>
+  <si>
+    <t>27EP07</t>
+  </si>
+  <si>
+    <t>27EP08</t>
+  </si>
+  <si>
+    <t>27EP09</t>
+  </si>
+  <si>
+    <t>27ES01</t>
+  </si>
+  <si>
+    <t>27ES02</t>
+  </si>
+  <si>
+    <t>27ES03</t>
+  </si>
+  <si>
+    <t>27ES04</t>
+  </si>
+  <si>
+    <t>27ES05</t>
+  </si>
+  <si>
+    <t>27ES06</t>
+  </si>
+  <si>
+    <t>27ES07</t>
+  </si>
+  <si>
+    <t>27ES08</t>
+  </si>
+  <si>
+    <t>27ES09</t>
+  </si>
+  <si>
+    <t>27ES10</t>
+  </si>
+  <si>
+    <t>27ES11</t>
+  </si>
+  <si>
+    <t>28EP01</t>
+  </si>
+  <si>
+    <t>28EP02</t>
+  </si>
+  <si>
+    <t>28EP03</t>
+  </si>
+  <si>
+    <t>28EP04</t>
+  </si>
+  <si>
+    <t>28EP05</t>
+  </si>
+  <si>
+    <t>28EP06</t>
+  </si>
+  <si>
+    <t>28EP07</t>
+  </si>
+  <si>
+    <t>28EP08</t>
+  </si>
+  <si>
+    <t>28EP09</t>
+  </si>
+  <si>
+    <t>28ES01</t>
+  </si>
+  <si>
+    <t>28ES02</t>
+  </si>
+  <si>
+    <t>28ES03</t>
+  </si>
+  <si>
+    <t>28ES04</t>
+  </si>
+  <si>
+    <t>28ES05</t>
+  </si>
+  <si>
+    <t>28ES06</t>
+  </si>
+  <si>
+    <t>28ES07</t>
+  </si>
+  <si>
+    <t>28ES08</t>
+  </si>
+  <si>
+    <t>28ES09</t>
+  </si>
+  <si>
+    <t>28ES10</t>
+  </si>
+  <si>
+    <t>28ES11</t>
+  </si>
+  <si>
+    <t>29EP01</t>
+  </si>
+  <si>
+    <t>29EP02</t>
+  </si>
+  <si>
+    <t>29EP03</t>
+  </si>
+  <si>
+    <t>29EP04</t>
+  </si>
+  <si>
+    <t>29EP05</t>
+  </si>
+  <si>
+    <t>29EP06</t>
+  </si>
+  <si>
+    <t>29EP07</t>
+  </si>
+  <si>
+    <t>29EP08</t>
+  </si>
+  <si>
+    <t>29EP09</t>
+  </si>
+  <si>
+    <t>29ES01</t>
+  </si>
+  <si>
+    <t>29ES02</t>
+  </si>
+  <si>
+    <t>29ES03</t>
+  </si>
+  <si>
+    <t>29ES04</t>
+  </si>
+  <si>
+    <t>29ES05</t>
+  </si>
+  <si>
+    <t>29ES06</t>
+  </si>
+  <si>
+    <t>29ES07</t>
+  </si>
+  <si>
+    <t>29ES08</t>
+  </si>
+  <si>
+    <t>29ES09</t>
+  </si>
+  <si>
+    <t>29ES10</t>
+  </si>
+  <si>
+    <t>29ES11</t>
+  </si>
+  <si>
+    <t>AE081</t>
+  </si>
+  <si>
+    <t>AE062</t>
+  </si>
+  <si>
+    <t>AE063</t>
+  </si>
+  <si>
+    <t>P4804</t>
+  </si>
+  <si>
+    <t>npg4</t>
+  </si>
+  <si>
+    <t>Petróleo crudo y gas natural</t>
+  </si>
+  <si>
+    <t>Carbón mineral, lignito y turba</t>
+  </si>
+  <si>
+    <t>Energía eléctrica , gas, vapor y aire acondicionado</t>
+  </si>
+  <si>
+    <t>Gases de petróleo y otros hidrocarburos gaseosos</t>
+  </si>
+  <si>
+    <t>Gasolinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel oil  </t>
+  </si>
+  <si>
+    <t>Fuel oils (bunker)</t>
+  </si>
+  <si>
+    <t>Otros productos de la refinación de petróleo n.c.p. y productos de combustible nuclear</t>
+  </si>
+  <si>
+    <t>Productos forestales no madereros</t>
+  </si>
+  <si>
+    <t>Otros artículos n.c.p.</t>
+  </si>
+  <si>
+    <t>Aceites, grasas lubricantes y otros aceites preparados</t>
+  </si>
+  <si>
+    <t>naeg</t>
+  </si>
+  <si>
+    <t>Fabricación de coque y productos de la refinación del petróleo</t>
+  </si>
+  <si>
+    <t>Suministro de electricidad, gas, vapor y aire acondicionado</t>
+  </si>
+  <si>
+    <t>Otras industrias manufactureras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricación de alcoholes </t>
+  </si>
+  <si>
+    <t>P4901</t>
+  </si>
+  <si>
+    <t>Desechos de la industria alimenticia y de tabaco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,7 +1344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,12 +1363,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -748,11 +1376,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,76 +1694,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7235EAF2-435C-47D5-BA9B-1EA106F44974}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.3046875" customWidth="1"/>
-    <col min="8" max="8" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.53515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3828125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.61328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.3046875" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1147,38 +1777,39 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1189,38 +1820,39 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1231,38 +1863,39 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1273,38 +1906,39 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
+        <v>182</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="2">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1315,34 +1949,35 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>8</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="2">
         <v>6</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O6" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1353,30 +1988,35 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1387,38 +2027,43 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
+        <v>420</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
+        <v>184</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1429,40 +2074,43 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
+        <v>421</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="2">
+        <v>184</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="2">
         <v>3</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1473,40 +2121,43 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
+        <v>421</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="2">
+        <v>184</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1517,38 +2168,43 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
+        <v>421</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
+        <v>184</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M11" s="2">
-        <v>3</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1559,38 +2215,43 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>189</v>
+        <v>403</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
+        <v>422</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
+        <v>184</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="2">
         <v>3</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="2">
-        <v>3</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1601,38 +2262,43 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
+        <v>420</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
+        <v>184</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="2">
         <v>3</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="2">
-        <v>3</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1643,38 +2309,43 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>189</v>
+        <v>405</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
+        <v>423</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2">
+        <v>184</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="2">
-        <v>3</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1685,38 +2356,43 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>189</v>
+        <v>403</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
+        <v>422</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
+        <v>184</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="2">
         <v>3</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M15" s="2">
-        <v>3</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1727,30 +2403,35 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1761,38 +2442,39 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2">
+        <v>184</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="2">
         <v>4</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1803,34 +2485,35 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="2">
         <v>8</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="M18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="2">
         <v>6</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O18" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1841,38 +2524,39 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
+        <v>182</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="2">
         <v>7</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="M19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N19" s="2">
         <v>5</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O19" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1883,38 +2567,39 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
+        <v>184</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="2">
         <v>4</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1925,38 +2610,39 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2">
+        <v>184</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="2">
         <v>4</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1967,38 +2653,39 @@
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2">
-        <v>6</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M22" s="2">
+        <v>186</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N22" s="2">
         <v>4</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O22" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2009,38 +2696,39 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2">
+        <v>184</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="2">
         <v>4</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2051,38 +2739,39 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2">
+        <v>184</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="2">
         <v>4</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2093,38 +2782,39 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2">
+        <v>184</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="2">
         <v>4</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2135,38 +2825,39 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2">
+        <v>184</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="2">
         <v>4</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2177,38 +2868,39 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2</v>
+        <v>87</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2">
+        <v>184</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" s="2">
         <v>4</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2219,28 +2911,33 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2">
-        <v>2</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2250,13 +2947,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A871C8D-2B72-4908-8864-4A4A6020CCC3}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3828125" bestFit="1" customWidth="1"/>
@@ -2264,481 +2961,2763 @@
     <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.53515625" customWidth="1"/>
+    <col min="8" max="8" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="F30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="F31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="F32" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>109</v>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F28:F41">
+    <sortCondition ref="F28:F41"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1DB110-3BED-4639-ABD6-7365CD20BDF8}">
+  <dimension ref="A1:C181"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="2" max="2" width="20.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.07421875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" s="2">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B172" s="2">
+        <v>2</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" s="2">
+        <v>2</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B177" s="2">
+        <v>2</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B178" s="2">
+        <v>2</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datos/CLASIFICACIONES_BALANCES.xlsx
+++ b/datos/CLASIFICACIONES_BALANCES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAEDBDA-4D1E-4DB3-9C55-BB500C7EE195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B0D09-B173-4E39-A89E-FA4A4361190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{6CAF9067-E9DD-4BAA-A4C4-ED4C1F61F977}"/>
+    <workbookView xWindow="720" yWindow="-98" windowWidth="18578" windowHeight="10996" activeTab="1" xr2:uid="{6CAF9067-E9DD-4BAA-A4C4-ED4C1F61F977}"/>
   </bookViews>
   <sheets>
     <sheet name="filas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="429">
   <si>
     <t>OFERTA TOTAL</t>
   </si>
@@ -1315,13 +1315,22 @@
   </si>
   <si>
     <t>Desechos de la industria alimenticia y de tabaco</t>
+  </si>
+  <si>
+    <t>ntgeM</t>
+  </si>
+  <si>
+    <t>id_ntgeM</t>
+  </si>
+  <si>
+    <t>Consumo de energéticos (intermedio y final)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1694,32 +1703,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7235EAF2-435C-47D5-BA9B-1EA106F44974}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.23046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.3046875" customWidth="1"/>
+    <col min="5" max="5" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.53515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.3828125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.61328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.53125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
@@ -1765,8 +1775,14 @@
       <c r="O1" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1808,8 +1824,14 @@
       <c r="O2" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1851,8 +1873,14 @@
       <c r="O3" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1894,8 +1922,14 @@
       <c r="O4" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1937,8 +1971,14 @@
       <c r="O5" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1976,8 +2016,14 @@
       <c r="O6" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2015,8 +2061,14 @@
       <c r="O7" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2062,8 +2114,14 @@
       <c r="O8" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2109,8 +2167,14 @@
       <c r="O9" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2156,8 +2220,14 @@
       <c r="O10" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2203,8 +2273,14 @@
       <c r="O11" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2250,8 +2326,14 @@
       <c r="O12" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2297,8 +2379,14 @@
       <c r="O13" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2344,8 +2432,14 @@
       <c r="O14" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2391,8 +2485,14 @@
       <c r="O15" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2430,8 +2530,14 @@
       <c r="O16" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2473,8 +2579,14 @@
       <c r="O17" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2512,8 +2624,14 @@
       <c r="O18" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2555,8 +2673,14 @@
       <c r="O19" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2598,8 +2722,14 @@
       <c r="O20" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2641,8 +2771,14 @@
       <c r="O21" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -2684,8 +2820,14 @@
       <c r="O22" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2727,8 +2869,14 @@
       <c r="O23" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2770,8 +2918,14 @@
       <c r="O24" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2813,8 +2967,14 @@
       <c r="O25" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2856,8 +3016,14 @@
       <c r="O26" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2899,8 +3065,14 @@
       <c r="O27" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2936,6 +3108,12 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2947,26 +3125,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A871C8D-2B72-4908-8864-4A4A6020CCC3}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3046875" customWidth="1"/>
-    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.53515625" customWidth="1"/>
-    <col min="8" max="8" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.9296875" customWidth="1"/>
+    <col min="8" max="8" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
@@ -2995,7 +3173,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
@@ -3024,7 +3202,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -3053,7 +3231,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -3082,7 +3260,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -3107,7 +3285,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
@@ -3132,7 +3310,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -3161,7 +3339,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -3190,7 +3368,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -3219,7 +3397,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -3244,7 +3422,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -3269,7 +3447,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>119</v>
       </c>
@@ -3298,7 +3476,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>120</v>
       </c>
@@ -3327,7 +3505,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
@@ -3356,7 +3534,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>122</v>
       </c>
@@ -3385,7 +3563,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>123</v>
       </c>
@@ -3414,7 +3592,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>124</v>
       </c>
@@ -3443,7 +3621,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
@@ -3472,7 +3650,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>126</v>
       </c>
@@ -3501,7 +3679,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>127</v>
       </c>
@@ -3530,7 +3708,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
@@ -3559,7 +3737,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
@@ -3588,7 +3766,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>130</v>
       </c>
@@ -3613,7 +3791,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>131</v>
       </c>
@@ -3636,71 +3814,6 @@
       </c>
       <c r="I24" s="2" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="F29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="F30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="F31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="F32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3720,13 +3833,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
@@ -3737,7 +3850,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>223</v>
       </c>
@@ -3748,7 +3861,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>224</v>
       </c>
@@ -3759,7 +3872,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>225</v>
       </c>
@@ -3770,7 +3883,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -3781,7 +3894,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>227</v>
       </c>
@@ -3792,7 +3905,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>228</v>
       </c>
@@ -3803,7 +3916,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>229</v>
       </c>
@@ -3814,7 +3927,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>230</v>
       </c>
@@ -3825,7 +3938,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>231</v>
       </c>
@@ -3836,7 +3949,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>232</v>
       </c>
@@ -3847,7 +3960,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>233</v>
       </c>
@@ -3858,7 +3971,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>234</v>
       </c>
@@ -3869,7 +3982,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>235</v>
       </c>
@@ -3880,7 +3993,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>236</v>
       </c>
@@ -3891,7 +4004,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>237</v>
       </c>
@@ -3902,7 +4015,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>238</v>
       </c>
@@ -3913,7 +4026,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>239</v>
       </c>
@@ -3924,7 +4037,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>240</v>
       </c>
@@ -3935,7 +4048,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>241</v>
       </c>
@@ -3946,7 +4059,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>242</v>
       </c>
@@ -3957,7 +4070,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>243</v>
       </c>
@@ -3968,7 +4081,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>244</v>
       </c>
@@ -3979,7 +4092,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>245</v>
       </c>
@@ -3990,7 +4103,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>246</v>
       </c>
@@ -4001,7 +4114,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>247</v>
       </c>
@@ -4012,7 +4125,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>248</v>
       </c>
@@ -4023,7 +4136,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>249</v>
       </c>
@@ -4034,7 +4147,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>250</v>
       </c>
@@ -4045,7 +4158,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>251</v>
       </c>
@@ -4056,7 +4169,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>252</v>
       </c>
@@ -4067,7 +4180,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>253</v>
       </c>
@@ -4078,7 +4191,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>254</v>
       </c>
@@ -4089,7 +4202,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>255</v>
       </c>
@@ -4100,7 +4213,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>256</v>
       </c>
@@ -4111,7 +4224,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>257</v>
       </c>
@@ -4122,7 +4235,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>258</v>
       </c>
@@ -4133,7 +4246,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>259</v>
       </c>
@@ -4144,7 +4257,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>260</v>
       </c>
@@ -4155,7 +4268,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>261</v>
       </c>
@@ -4166,7 +4279,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>262</v>
       </c>
@@ -4177,7 +4290,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>263</v>
       </c>
@@ -4188,7 +4301,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>264</v>
       </c>
@@ -4199,7 +4312,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>265</v>
       </c>
@@ -4210,7 +4323,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>266</v>
       </c>
@@ -4221,7 +4334,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>267</v>
       </c>
@@ -4232,7 +4345,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>268</v>
       </c>
@@ -4243,7 +4356,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>269</v>
       </c>
@@ -4254,7 +4367,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>270</v>
       </c>
@@ -4265,7 +4378,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>271</v>
       </c>
@@ -4276,7 +4389,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>272</v>
       </c>
@@ -4287,7 +4400,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>273</v>
       </c>
@@ -4298,7 +4411,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>274</v>
       </c>
@@ -4309,7 +4422,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>275</v>
       </c>
@@ -4320,7 +4433,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>276</v>
       </c>
@@ -4331,7 +4444,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>277</v>
       </c>
@@ -4342,7 +4455,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>278</v>
       </c>
@@ -4353,7 +4466,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>279</v>
       </c>
@@ -4364,7 +4477,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>280</v>
       </c>
@@ -4375,7 +4488,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>281</v>
       </c>
@@ -4386,7 +4499,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>282</v>
       </c>
@@ -4397,7 +4510,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>283</v>
       </c>
@@ -4408,7 +4521,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>284</v>
       </c>
@@ -4419,7 +4532,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>285</v>
       </c>
@@ -4430,7 +4543,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>286</v>
       </c>
@@ -4441,7 +4554,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>287</v>
       </c>
@@ -4452,7 +4565,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>288</v>
       </c>
@@ -4463,7 +4576,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>289</v>
       </c>
@@ -4474,7 +4587,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>290</v>
       </c>
@@ -4485,7 +4598,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>291</v>
       </c>
@@ -4496,7 +4609,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>292</v>
       </c>
@@ -4507,7 +4620,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>293</v>
       </c>
@@ -4518,7 +4631,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>294</v>
       </c>
@@ -4529,7 +4642,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>295</v>
       </c>
@@ -4540,7 +4653,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>296</v>
       </c>
@@ -4551,7 +4664,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>297</v>
       </c>
@@ -4562,7 +4675,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>298</v>
       </c>
@@ -4573,7 +4686,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>299</v>
       </c>
@@ -4584,7 +4697,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>300</v>
       </c>
@@ -4595,7 +4708,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>301</v>
       </c>
@@ -4606,7 +4719,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>302</v>
       </c>
@@ -4617,7 +4730,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>303</v>
       </c>
@@ -4628,7 +4741,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>304</v>
       </c>
@@ -4639,7 +4752,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>305</v>
       </c>
@@ -4650,7 +4763,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>306</v>
       </c>
@@ -4661,7 +4774,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>307</v>
       </c>
@@ -4672,7 +4785,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>308</v>
       </c>
@@ -4683,7 +4796,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>309</v>
       </c>
@@ -4694,7 +4807,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>310</v>
       </c>
@@ -4705,7 +4818,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>311</v>
       </c>
@@ -4716,7 +4829,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>312</v>
       </c>
@@ -4727,7 +4840,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>313</v>
       </c>
@@ -4738,7 +4851,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>314</v>
       </c>
@@ -4749,7 +4862,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>315</v>
       </c>
@@ -4760,7 +4873,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>316</v>
       </c>
@@ -4771,7 +4884,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>317</v>
       </c>
@@ -4782,7 +4895,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>318</v>
       </c>
@@ -4793,7 +4906,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>319</v>
       </c>
@@ -4804,7 +4917,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>320</v>
       </c>
@@ -4815,7 +4928,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>321</v>
       </c>
@@ -4826,7 +4939,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>322</v>
       </c>
@@ -4837,7 +4950,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>323</v>
       </c>
@@ -4848,7 +4961,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>324</v>
       </c>
@@ -4859,7 +4972,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>325</v>
       </c>
@@ -4870,7 +4983,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>326</v>
       </c>
@@ -4881,7 +4994,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>327</v>
       </c>
@@ -4892,7 +5005,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>328</v>
       </c>
@@ -4903,7 +5016,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>329</v>
       </c>
@@ -4914,7 +5027,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>330</v>
       </c>
@@ -4925,7 +5038,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>331</v>
       </c>
@@ -4936,7 +5049,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>332</v>
       </c>
@@ -4947,7 +5060,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>333</v>
       </c>
@@ -4958,7 +5071,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>334</v>
       </c>
@@ -4969,7 +5082,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>335</v>
       </c>
@@ -4980,7 +5093,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>336</v>
       </c>
@@ -4991,7 +5104,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>337</v>
       </c>
@@ -5002,7 +5115,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>338</v>
       </c>
@@ -5013,7 +5126,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>339</v>
       </c>
@@ -5024,7 +5137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>340</v>
       </c>
@@ -5035,7 +5148,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>341</v>
       </c>
@@ -5046,7 +5159,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>342</v>
       </c>
@@ -5057,7 +5170,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>343</v>
       </c>
@@ -5068,7 +5181,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>344</v>
       </c>
@@ -5079,7 +5192,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>345</v>
       </c>
@@ -5090,7 +5203,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>346</v>
       </c>
@@ -5101,7 +5214,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>347</v>
       </c>
@@ -5112,7 +5225,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>348</v>
       </c>
@@ -5123,7 +5236,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>349</v>
       </c>
@@ -5134,7 +5247,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>350</v>
       </c>
@@ -5145,7 +5258,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>351</v>
       </c>
@@ -5156,7 +5269,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>352</v>
       </c>
@@ -5167,7 +5280,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>353</v>
       </c>
@@ -5178,7 +5291,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>354</v>
       </c>
@@ -5189,7 +5302,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>355</v>
       </c>
@@ -5200,7 +5313,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>356</v>
       </c>
@@ -5211,7 +5324,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>357</v>
       </c>
@@ -5222,7 +5335,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>358</v>
       </c>
@@ -5233,7 +5346,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>359</v>
       </c>
@@ -5244,7 +5357,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>360</v>
       </c>
@@ -5255,7 +5368,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>361</v>
       </c>
@@ -5266,7 +5379,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>362</v>
       </c>
@@ -5277,7 +5390,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>363</v>
       </c>
@@ -5288,7 +5401,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>364</v>
       </c>
@@ -5299,7 +5412,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>365</v>
       </c>
@@ -5310,7 +5423,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>366</v>
       </c>
@@ -5321,7 +5434,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>367</v>
       </c>
@@ -5332,7 +5445,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>368</v>
       </c>
@@ -5343,7 +5456,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>369</v>
       </c>
@@ -5354,7 +5467,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>370</v>
       </c>
@@ -5365,7 +5478,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>371</v>
       </c>
@@ -5376,7 +5489,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>372</v>
       </c>
@@ -5387,7 +5500,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>373</v>
       </c>
@@ -5398,7 +5511,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>374</v>
       </c>
@@ -5409,7 +5522,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>375</v>
       </c>
@@ -5420,7 +5533,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>376</v>
       </c>
@@ -5431,7 +5544,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>377</v>
       </c>
@@ -5442,7 +5555,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>378</v>
       </c>
@@ -5453,7 +5566,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>379</v>
       </c>
@@ -5464,7 +5577,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>380</v>
       </c>
@@ -5475,7 +5588,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>381</v>
       </c>
@@ -5486,7 +5599,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>382</v>
       </c>
@@ -5497,7 +5610,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>383</v>
       </c>
@@ -5508,7 +5621,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>384</v>
       </c>
@@ -5519,7 +5632,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>385</v>
       </c>
@@ -5530,7 +5643,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>386</v>
       </c>
@@ -5541,7 +5654,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>387</v>
       </c>
@@ -5552,7 +5665,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>388</v>
       </c>
@@ -5563,7 +5676,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>389</v>
       </c>
@@ -5574,7 +5687,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>390</v>
       </c>
@@ -5585,7 +5698,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>391</v>
       </c>
@@ -5596,7 +5709,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>392</v>
       </c>
@@ -5607,7 +5720,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>393</v>
       </c>
@@ -5618,7 +5731,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>394</v>
       </c>
@@ -5629,7 +5742,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>395</v>
       </c>
@@ -5640,7 +5753,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>396</v>
       </c>
@@ -5651,7 +5764,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>397</v>
       </c>
@@ -5662,7 +5775,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>398</v>
       </c>
@@ -5673,7 +5786,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>399</v>
       </c>
@@ -5684,7 +5797,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>400</v>
       </c>
@@ -5695,7 +5808,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>401</v>
       </c>
@@ -5706,7 +5819,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>402</v>
       </c>
